--- a/biology/Mycologie/Cortinaire_purpurescent/Cortinaire_purpurescent.xlsx
+++ b/biology/Mycologie/Cortinaire_purpurescent/Cortinaire_purpurescent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cortinarius purpurascens
 Le cortinaire purpurescent (Cortinarius purpurascens) est un champignon basidiomycète du genre Cortinarius et de la famille des Cortinariaceae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le chapeau est visqueux et a une taille qui varie entre 3 et 10 cm, il est gris-lilas, gris-bleuté et gris bleuté  au centre. Il est également couvert de fibres radiales innées de couleur brun foncé. Il est d'abord convexe et devient plan.
 La chair est blanche plus ou moins bleutée et violacée, elle s'oxyde rapidement à l'air en rose violacé. Sa saveur est douce et rend un parfum de miel et de cacao.
@@ -545,7 +559,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On le rencontre à partir du milieu du l'été jusqu'à la fin de l'automne sous les conifères et feuillus. Il pousse sur les sols peu calcaires.
 </t>
@@ -576,9 +592,11 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est considéré comme comestible[1] mais a de piètres qualités gustatives.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est considéré comme comestible mais a de piètres qualités gustatives.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Confusions possibles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">On pourrait le confondre avec Lepista nuda, Cortinarius violaceus ou d'autres cortinaires qui pourraient être toxiques.
 </t>
